--- a/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7978118-576D-4F4B-A77E-A91691F96A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7D07A9-D045-4EE3-82FB-3F48E6C22505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -217,12 +217,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -383,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,53 +394,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,135 +742,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="3"/>
+    <col min="9" max="9" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-    </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="13" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="19"/>
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="2" t="s">
         <v>51</v>
       </c>
@@ -907,9 +895,9 @@
       <c r="K7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -920,21 +908,21 @@
         <v>8</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="8">
+      <c r="E8" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="21">
         <f>SUM(D8:K8)</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -945,21 +933,21 @@
         <v>10</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="8">
+      <c r="E9" s="19">
         <v>5</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="21">
         <f>SUM(D9:K9)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -970,21 +958,21 @@
         <v>12</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="8">
+      <c r="E10" s="19">
         <v>1.8</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="21">
         <f t="shared" ref="L10:L26" si="0">SUM(D10:K10)</f>
         <v>1.8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -995,21 +983,21 @@
         <v>14</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="8">
+      <c r="E11" s="19">
         <v>5.55</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="21">
         <f t="shared" si="0"/>
         <v>5.55</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -1020,21 +1008,21 @@
         <v>16</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8">
+      <c r="E12" s="19">
         <v>1.5</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="21">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1045,21 +1033,21 @@
         <v>18</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="8">
+      <c r="E13" s="19">
         <v>1.9</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="21">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -1070,21 +1058,21 @@
         <v>20</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="8">
+      <c r="E14" s="19">
         <v>1.4</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="21">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1095,21 +1083,21 @@
         <v>22</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="8">
+      <c r="E15" s="19">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="21">
         <f t="shared" si="0"/>
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -1120,21 +1108,21 @@
         <v>24</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="8">
+      <c r="E16" s="19">
         <v>4</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -1145,21 +1133,21 @@
         <v>26</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="8">
+      <c r="E17" s="19">
         <v>3.65</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="21">
         <f t="shared" si="0"/>
         <v>3.65</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -1170,21 +1158,21 @@
         <v>28</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="8">
+      <c r="E18" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="21">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -1195,21 +1183,21 @@
         <v>30</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="8">
+      <c r="E19" s="19">
         <v>2.1</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="21">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -1220,21 +1208,21 @@
         <v>32</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="8">
+      <c r="E20" s="19">
         <v>5.2</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="21">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -1245,21 +1233,21 @@
         <v>34</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="8">
+      <c r="E21" s="19">
         <v>1.7</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="21">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -1270,21 +1258,21 @@
         <v>36</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="8">
+      <c r="E22" s="19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="11">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="21">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -1295,21 +1283,21 @@
         <v>38</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="8">
+      <c r="E23" s="19">
         <v>2.35</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="21">
         <f t="shared" si="0"/>
         <v>2.35</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A24" s="1">
         <v>17</v>
       </c>
@@ -1320,21 +1308,21 @@
         <v>40</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="8">
+      <c r="E24" s="19">
         <v>1.8</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="21">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A25" s="1">
         <v>18</v>
       </c>
@@ -1345,21 +1333,21 @@
         <v>42</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="8">
+      <c r="E25" s="19">
         <v>2.15</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="21">
         <f t="shared" si="0"/>
         <v>2.15</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -1370,21 +1358,21 @@
         <v>44</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="8">
+      <c r="E26" s="19">
         <v>1.55</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="11">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="21">
         <f t="shared" si="0"/>
         <v>1.55</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.8">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1399,20 +1387,21 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="10">
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="L5:L7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:G6"/>
     <mergeCell ref="H5:K6"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7D07A9-D045-4EE3-82FB-3F48E6C22505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733AED04-EDAE-4209-B09F-7DAFC7B766AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -188,20 +188,26 @@
     <t>SUMMARY</t>
   </si>
   <si>
-    <t>LAB&amp;&amp;WORK (10)</t>
-  </si>
-  <si>
     <t>Midterm (25)</t>
   </si>
   <si>
     <t>Filnal (25)</t>
+  </si>
+  <si>
+    <t>WORK (5)</t>
+  </si>
+  <si>
+    <t>LAB (5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -222,13 +228,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="TH SarabunPSK"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -310,17 +309,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -373,11 +361,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,49 +423,64 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,153 +798,173 @@
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="3"/>
+    <col min="13" max="13" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.8">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-    </row>
-    <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.8">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.8">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.8">
-      <c r="A4" s="18" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.8">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="11" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="20" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" spans="1:12" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="2" t="s">
+    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="M7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -907,22 +974,30 @@
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="19">
+      <c r="D8" s="23">
+        <v>5</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="21">
-        <f>SUM(D8:K8)</f>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G8" s="24"/>
+      <c r="H8" s="24">
+        <v>5</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="25">
+        <f>SUM(D8:M8)</f>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -932,22 +1007,30 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="19">
-        <v>5</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="21">
-        <f>SUM(D9:K9)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="D9" s="24">
+        <v>5</v>
+      </c>
+      <c r="E9" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="24">
+        <v>5</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24">
+        <v>5</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="25">
+        <f t="shared" ref="N9:N26" si="0">SUM(D9:M9)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -957,22 +1040,30 @@
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="19">
+      <c r="D10" s="24">
+        <v>5</v>
+      </c>
+      <c r="E10" s="24">
+        <v>4</v>
+      </c>
+      <c r="F10" s="24">
         <v>1.8</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="21">
-        <f t="shared" ref="L10:L26" si="0">SUM(D10:K10)</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24">
+        <v>5</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="25">
+        <f t="shared" si="0"/>
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -982,22 +1073,30 @@
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="19">
+      <c r="D11" s="24">
+        <v>5</v>
+      </c>
+      <c r="E11" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="24">
         <v>5.55</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="21">
+      <c r="G11" s="24"/>
+      <c r="H11" s="24">
+        <v>5</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="25">
         <f t="shared" si="0"/>
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -1007,22 +1106,30 @@
       <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="19">
+      <c r="D12" s="24">
+        <v>5</v>
+      </c>
+      <c r="E12" s="24">
+        <v>2</v>
+      </c>
+      <c r="F12" s="24">
         <v>1.5</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="21">
+      <c r="G12" s="24"/>
+      <c r="H12" s="24">
+        <v>5</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="25">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1032,22 +1139,30 @@
       <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="19">
+      <c r="D13" s="24">
+        <v>5</v>
+      </c>
+      <c r="E13" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="24">
         <v>1.9</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="21">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24">
+        <v>5</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="25">
         <f t="shared" si="0"/>
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -1057,22 +1172,30 @@
       <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="19">
+      <c r="D14" s="24">
+        <v>5</v>
+      </c>
+      <c r="E14" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="24">
         <v>1.4</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="21">
+      <c r="G14" s="24"/>
+      <c r="H14" s="24">
+        <v>5</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="25">
         <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1082,22 +1205,30 @@
       <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="19">
+      <c r="D15" s="24">
+        <v>5</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="21">
+      <c r="G15" s="24"/>
+      <c r="H15" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="25">
         <f t="shared" si="0"/>
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -1107,22 +1238,30 @@
       <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="19">
+      <c r="D16" s="24">
+        <v>5</v>
+      </c>
+      <c r="E16" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="24">
         <v>4</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="21">
+      <c r="G16" s="24"/>
+      <c r="H16" s="24">
+        <v>5</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -1132,22 +1271,30 @@
       <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="19">
+      <c r="D17" s="24">
+        <v>5</v>
+      </c>
+      <c r="E17" s="24">
+        <v>2</v>
+      </c>
+      <c r="F17" s="24">
         <v>3.65</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="21">
+      <c r="G17" s="24"/>
+      <c r="H17" s="24">
+        <v>5</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="25">
         <f t="shared" si="0"/>
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -1157,22 +1304,30 @@
       <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="19">
+      <c r="D18" s="24">
+        <v>4.375</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="24">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="21">
+      <c r="G18" s="24"/>
+      <c r="H18" s="24">
+        <v>5</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="25">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>11.574999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -1182,22 +1337,30 @@
       <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="19">
+      <c r="D19" s="24">
+        <v>5</v>
+      </c>
+      <c r="E19" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="24">
         <v>2.1</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="21">
+      <c r="G19" s="24"/>
+      <c r="H19" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="25">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -1207,22 +1370,30 @@
       <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="19">
+      <c r="D20" s="24">
+        <v>5</v>
+      </c>
+      <c r="E20" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="F20" s="24">
         <v>5.2</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="21">
+      <c r="G20" s="24"/>
+      <c r="H20" s="24">
+        <v>5</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="25">
         <f t="shared" si="0"/>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -1232,22 +1403,30 @@
       <c r="C21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="19">
+      <c r="D21" s="24">
+        <v>5</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="24">
         <v>1.7</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="21">
+      <c r="G21" s="24"/>
+      <c r="H21" s="24">
+        <v>5</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="25">
         <f t="shared" si="0"/>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -1257,22 +1436,30 @@
       <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="19">
+      <c r="D22" s="24">
+        <v>4.38</v>
+      </c>
+      <c r="E22" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="21">
+      <c r="G22" s="24"/>
+      <c r="H22" s="24">
+        <v>5</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="25">
         <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -1282,22 +1469,30 @@
       <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="19">
+      <c r="D23" s="24">
+        <v>5</v>
+      </c>
+      <c r="E23" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="24">
         <v>2.35</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="21">
+      <c r="G23" s="24"/>
+      <c r="H23" s="24">
+        <v>5</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="25">
         <f t="shared" si="0"/>
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A24" s="1">
         <v>17</v>
       </c>
@@ -1307,22 +1502,30 @@
       <c r="C24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="19">
+      <c r="D24" s="24">
+        <v>5</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="24">
         <v>1.8</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="21">
+      <c r="G24" s="24"/>
+      <c r="H24" s="24">
+        <v>5</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="25">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A25" s="1">
         <v>18</v>
       </c>
@@ -1332,22 +1535,30 @@
       <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="19">
+      <c r="D25" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="24">
         <v>2.15</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="21">
+      <c r="G25" s="24"/>
+      <c r="H25" s="24">
+        <v>5</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="25">
         <f t="shared" si="0"/>
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>7.7750000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -1357,53 +1568,63 @@
       <c r="C26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="19">
+      <c r="D26" s="24">
+        <v>5</v>
+      </c>
+      <c r="E26" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="F26" s="24">
         <v>1.55</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="21">
+      <c r="G26" s="24"/>
+      <c r="H26" s="24">
+        <v>5</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="25">
         <f t="shared" si="0"/>
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.8">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="5">
-        <f>AVERAGE(E8:E26)</f>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5">
+        <f>AVERAGE(F8:F26)</f>
         <v>2.6736842105263152</v>
       </c>
-      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="10">
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="N5:N7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:G6"/>
-    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="D5:H6"/>
+    <mergeCell ref="I5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์/SCORE_207.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCE207_Advanced Topics in Computer Engineering_หัวข้อความก้าวล้าในงานวิศวกรรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733AED04-EDAE-4209-B09F-7DAFC7B766AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD209F5-699E-4FF2-8C02-33B6FC2257C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,7 +205,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -432,6 +432,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,31 +468,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,7 +790,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,125 +813,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="13" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="11" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="11"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="9" t="s">
         <v>54</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="M7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.8">
       <c r="A8" s="1">
@@ -974,25 +974,25 @@
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="23">
-        <v>5</v>
-      </c>
-      <c r="E8" s="24">
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24">
-        <v>5</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="25">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>5</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12">
         <f>SUM(D8:M8)</f>
         <v>12.2</v>
       </c>
@@ -1007,25 +1007,25 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24">
-        <v>5</v>
-      </c>
-      <c r="E9" s="24">
+      <c r="D9" s="11">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11">
         <v>4.5</v>
       </c>
-      <c r="F9" s="24">
-        <v>5</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24">
-        <v>5</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="25">
+      <c r="F9" s="11">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>5</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="12">
         <f t="shared" ref="N9:N26" si="0">SUM(D9:M9)</f>
         <v>19.5</v>
       </c>
@@ -1040,25 +1040,25 @@
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="24">
-        <v>5</v>
-      </c>
-      <c r="E10" s="24">
+      <c r="D10" s="11">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11">
         <v>4</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="11">
         <v>1.8</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24">
-        <v>5</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="25">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
+        <v>5</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="12">
         <f t="shared" si="0"/>
         <v>15.8</v>
       </c>
@@ -1073,25 +1073,25 @@
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="24">
-        <v>5</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="D11" s="11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11">
         <v>2.5</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="11">
         <v>5.55</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24">
-        <v>5</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="25">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>5</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="12">
         <f t="shared" si="0"/>
         <v>18.05</v>
       </c>
@@ -1106,25 +1106,25 @@
       <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="24">
-        <v>5</v>
-      </c>
-      <c r="E12" s="24">
+      <c r="D12" s="11">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11">
         <v>2</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="11">
         <v>1.5</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24">
-        <v>5</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="25">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <v>5</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="12">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
@@ -1139,25 +1139,25 @@
       <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="24">
-        <v>5</v>
-      </c>
-      <c r="E13" s="24">
+      <c r="D13" s="11">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11">
         <v>2.5</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="11">
         <v>1.9</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24">
-        <v>5</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="25">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <v>5</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="12">
         <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
@@ -1172,25 +1172,25 @@
       <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="24">
-        <v>5</v>
-      </c>
-      <c r="E14" s="24">
+      <c r="D14" s="11">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11">
         <v>2.5</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="11">
         <v>1.4</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24">
-        <v>5</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="25">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11">
+        <v>5</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="12">
         <f t="shared" si="0"/>
         <v>13.9</v>
       </c>
@@ -1205,25 +1205,25 @@
       <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="24">
-        <v>5</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="D15" s="11">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11">
         <v>0</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="11">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
         <v>4.2</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="25">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="12">
         <f t="shared" si="0"/>
         <v>11.65</v>
       </c>
@@ -1238,25 +1238,25 @@
       <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="24">
-        <v>5</v>
-      </c>
-      <c r="E16" s="24">
+      <c r="D16" s="11">
+        <v>5</v>
+      </c>
+      <c r="E16" s="11">
         <v>2.5</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="11">
         <v>4</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24">
-        <v>5</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="25">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11">
+        <v>5</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="12">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
@@ -1271,25 +1271,25 @@
       <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="24">
-        <v>5</v>
-      </c>
-      <c r="E17" s="24">
+      <c r="D17" s="11">
+        <v>5</v>
+      </c>
+      <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="11">
         <v>3.65</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24">
-        <v>5</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="25">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11">
+        <v>5</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="12">
         <f t="shared" si="0"/>
         <v>15.65</v>
       </c>
@@ -1304,25 +1304,25 @@
       <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="11">
         <v>4.375</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="11">
         <v>0</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24">
-        <v>5</v>
-      </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="25">
+      <c r="G18" s="11"/>
+      <c r="H18" s="11">
+        <v>5</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="12">
         <f t="shared" si="0"/>
         <v>11.574999999999999</v>
       </c>
@@ -1337,25 +1337,25 @@
       <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="24">
-        <v>5</v>
-      </c>
-      <c r="E19" s="24">
+      <c r="D19" s="11">
+        <v>5</v>
+      </c>
+      <c r="E19" s="11">
         <v>2.5</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="11">
         <v>2.1</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
         <v>4.2</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="25">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="12">
         <f t="shared" si="0"/>
         <v>13.8</v>
       </c>
@@ -1370,25 +1370,25 @@
       <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="24">
-        <v>5</v>
-      </c>
-      <c r="E20" s="24">
+      <c r="D20" s="11">
+        <v>5</v>
+      </c>
+      <c r="E20" s="11">
         <v>4.5</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="11">
         <v>5.2</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24">
-        <v>5</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="25">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11">
+        <v>5</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="12">
         <f t="shared" si="0"/>
         <v>19.7</v>
       </c>
@@ -1403,25 +1403,25 @@
       <c r="C21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="24">
-        <v>5</v>
-      </c>
-      <c r="E21" s="24">
+      <c r="D21" s="11">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11">
         <v>0</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="11">
         <v>1.7</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24">
-        <v>5</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="25">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
+        <v>5</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="12">
         <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
@@ -1436,25 +1436,25 @@
       <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="11">
         <v>4.38</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="11">
         <v>2.5</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24">
-        <v>5</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="25">
+      <c r="G22" s="11"/>
+      <c r="H22" s="11">
+        <v>5</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="12">
         <f t="shared" si="0"/>
         <v>14.18</v>
       </c>
@@ -1469,25 +1469,25 @@
       <c r="C23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="24">
-        <v>5</v>
-      </c>
-      <c r="E23" s="24">
+      <c r="D23" s="11">
+        <v>5</v>
+      </c>
+      <c r="E23" s="11">
         <v>2.5</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="11">
         <v>2.35</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24">
-        <v>5</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="25">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11">
+        <v>5</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="12">
         <f t="shared" si="0"/>
         <v>14.85</v>
       </c>
@@ -1502,25 +1502,25 @@
       <c r="C24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="24">
-        <v>5</v>
-      </c>
-      <c r="E24" s="24">
+      <c r="D24" s="11">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11">
         <v>0</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="11">
         <v>1.8</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24">
-        <v>5</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="25">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11">
+        <v>5</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="12">
         <f t="shared" si="0"/>
         <v>11.8</v>
       </c>
@@ -1535,25 +1535,25 @@
       <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="11">
         <v>0.625</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="11">
         <v>0</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="11">
         <v>2.15</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24">
-        <v>5</v>
-      </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="25">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11">
+        <v>5</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="12">
         <f t="shared" si="0"/>
         <v>7.7750000000000004</v>
       </c>
@@ -1568,25 +1568,25 @@
       <c r="C26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="24">
-        <v>5</v>
-      </c>
-      <c r="E26" s="24">
+      <c r="D26" s="11">
+        <v>5</v>
+      </c>
+      <c r="E26" s="11">
         <v>2.5</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="11">
         <v>1.55</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24">
-        <v>5</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="25">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11">
+        <v>5</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="12">
         <f t="shared" si="0"/>
         <v>14.05</v>
       </c>
@@ -1608,7 +1608,10 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="N27" s="5">
+        <f>AVERAGE(N8:N26)</f>
+        <v>14.241052631578947</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
